--- a/Input/dados_teste/suscep_classes_new_alt.xlsx
+++ b/Input/dados_teste/suscep_classes_new_alt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/febagnatori/Documents/GitHub/ScientificResearchAtibiotics/Input/dados_teste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89E68E3-5661-864E-BA53-C9C5090CAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE8B011-B728-0942-AA47-C64F65620180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="920" windowWidth="14880" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
